--- a/medicine/Enfance/René_Péron/René_Péron.xlsx
+++ b/medicine/Enfance/René_Péron/René_Péron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_P%C3%A9ron</t>
+          <t>René_Péron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Péron, né le 11 mars 1904 dans le 19e arrondissement de Paris[1] et mort le 29 avril 1972 au Landin[2], est un affichiste et illustrateur français[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Péron, né le 11 mars 1904 dans le 19e arrondissement de Paris et mort le 29 avril 1972 au Landin, est un affichiste et illustrateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_P%C3%A9ron</t>
+          <t>René_Péron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Péron dessine plus de 2 000 affiches de cinéma entre 1930 et 1960, dont des affiches pour des films de premier plan comme La Belle Marinière (1932), King Kong (1933), Le Briseur de chaînes (1941), L'Éternel Retour (1943), Jour de fête (1947), Dédée d'Anvers (1948), Un grand patron (1951), French Cancan (1954), Et dieu créa la femme (1956) ou Spartacus (1960).
-En septembre 1941, il conçoit une affiche de propagande antisémite pour la Ligue française[4] à l'occasion de l'exposition « Le Juif et la France », affiche inspirée par la couverture d'un numéro de L'Assiette au beurre publié le 5 septembre 1903 et signée Camara[5].
-Dans les années 1950, il signe la couverture de nombreux romans (notamment policiers) ainsi que des illustrations pour des éditions club (L'Aiglon d'Edmond Rostand[6]).
+En septembre 1941, il conçoit une affiche de propagande antisémite pour la Ligue française à l'occasion de l'exposition « Le Juif et la France », affiche inspirée par la couverture d'un numéro de L'Assiette au beurre publié le 5 septembre 1903 et signée Camara.
+Dans les années 1950, il signe la couverture de nombreux romans (notamment policiers) ainsi que des illustrations pour des éditions club (L'Aiglon d'Edmond Rostand).
 Après 1960, il se consacre à l'illustration de livres pour enfants (collection « Contes et légendes » chez Nathan) et de livres scolaires.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_P%C3%A9ron</t>
+          <t>René_Péron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques ouvrages jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1961 : Léonce Bourliaguet, Le Marchand de nuages, éditions G. P., coll. « Spirale », illustrations de René Péron
 1962 : Léonce Bourliaguet, On tourne au village, éditions G. P., coll. « Spirale » no 361, illustrations de René Péron
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_P%C3%A9ron</t>
+          <t>René_Péron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Européen de littérature enfantine de la ville de Caorle 1966 pour Les Canons de Valmy, texte de Léonce Bourliaguet, illustrations de René Péron
-(international) « Honor List » 1966[7], de l' IBBY, pour Les Canons de Valmy, texte de Léonce Bourliaguet, illustrations de René Péron</t>
+(international) « Honor List » 1966, de l' IBBY, pour Les Canons de Valmy, texte de Léonce Bourliaguet, illustrations de René Péron</t>
         </is>
       </c>
     </row>
